--- a/medicine/Psychotrope/Melitta_(entreprise)/Melitta_(entreprise).xlsx
+++ b/medicine/Psychotrope/Melitta_(entreprise)/Melitta_(entreprise).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Melitta est une entreprise allemande spécialisée dans la fabrication et la distribution de petit électroménager (cafetières, bouilloires) et d'accessoires pour produits ménagers[1] : filtres à café en papier filtre, sac pour aspirateurs, détartrant. L'entreprise porte le prénom de l'inventrice de l'entrepreneuse allemande qui a inventé le filtre à café en 1908, Melitta Bentz. Les petits-enfants de Melitta Bentz, Thomas et Stephen, contrôlent toujours le Melitta Group KG dont le siège est à Minden. Le groupe emploie 3 300 employés répartis dans cinquante entreprises[2].
+Melitta est une entreprise allemande spécialisée dans la fabrication et la distribution de petit électroménager (cafetières, bouilloires) et d'accessoires pour produits ménagers : filtres à café en papier filtre, sac pour aspirateurs, détartrant. L'entreprise porte le prénom de l'inventrice de l'entrepreneuse allemande qui a inventé le filtre à café en 1908, Melitta Bentz. Les petits-enfants de Melitta Bentz, Thomas et Stephen, contrôlent toujours le Melitta Group KG dont le siège est à Minden. Le groupe emploie 3 300 employés répartis dans cinquante entreprises.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1908 : Melitta Bentz, une ménagère de Dresde, afin de filtrer son café, perce des trous dans le fond d'un pot à café. Le résultat n'étant pas optimal, elle décide de faire un 2e filtre en plaçant une feuille de papier buvard issu d'un cahier d'école de son fils. Elle y met du café et verse de l'eau chaude et le filtre à café en papier est né. Il est ensuite déposé au Bureau Royal des Patentes de Berlin et enregistré en juillet.
 1920 : définition de l'emballage rouge et vert, protégeant visuellement le produit par son conditionnement.
@@ -546,10 +560,12 @@
           <t>L'entreprise aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Melitta possède de très nombreuses divisions, notamment au Brésil, en Suède, aux États-Unis, au Japon, en Chine, en France, en Belgique, aux Pays-Bas, en Suisse ou au Canada...
-Melitta France SAS, la filiale française de Melitta, est implantée à Paris et Chézy-sur-Marne. Elle était également présente à Tourcoing, depuis le rachat en 2004 de l'entreprise Codiac[3], spécialisée dans la fabrication d'accessoires pour appareils électroménagers[4]. Ce site a été fermé en 2010[5], à la suite d'une opération de restructuration des activités françaises de Melitta, qui a entraîné la délocalisation de la production de filtres à café de Chézy-sur-Marne vers l'Allemagne, et le transfert de l'activité logistique de Tourcoing vers Chézy[6].
+Melitta France SAS, la filiale française de Melitta, est implantée à Paris et Chézy-sur-Marne. Elle était également présente à Tourcoing, depuis le rachat en 2004 de l'entreprise Codiac, spécialisée dans la fabrication d'accessoires pour appareils électroménagers. Ce site a été fermé en 2010, à la suite d'une opération de restructuration des activités françaises de Melitta, qui a entraîné la délocalisation de la production de filtres à café de Chézy-sur-Marne vers l'Allemagne, et le transfert de l'activité logistique de Tourcoing vers Chézy.
 La filiale Melitta Espagne a été fermée en 2004.
 </t>
         </is>
